--- a/doc/Plan.xlsx
+++ b/doc/Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E60C57A-C36A-4DA2-B9E1-74815093F909}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538895A-752E-48E5-9A3C-2B0405353A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Requirement</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +456,7 @@
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -481,8 +482,12 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>

--- a/doc/Plan.xlsx
+++ b/doc/Plan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538895A-752E-48E5-9A3C-2B0405353A2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Requirement</t>
   </si>
@@ -90,17 +89,21 @@
   </si>
   <si>
     <t>Highest</t>
+  </si>
+  <si>
+    <t>Set up Jenkins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +111,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,8 +119,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -165,8 +175,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -259,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,30 +446,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -476,7 +486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -489,14 +499,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -511,14 +521,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -529,14 +539,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -547,14 +559,14 @@
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -565,21 +577,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -587,15 +599,16 @@
       <c r="E13" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{2631311E-E16A-46C5-8007-6763D563D4C2}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{03C6699E-47C3-4390-AF4E-01E1C226CA4F}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{262DDB30-BCBD-42AA-948B-7A5FD6A96305}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{88E50551-D18B-444A-AB62-803878950306}"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25A40655-3338-42C1-8D4D-0909B8F9028E}">
@@ -617,19 +630,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74918904-DF0F-4A5C-9812-A73B0E2B49EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -637,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -645,7 +658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -653,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -661,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -670,6 +683,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Plan.xlsx
+++ b/doc/Plan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Requirement</t>
   </si>
@@ -31,67 +31,80 @@
     <t>Testing the Web Layer</t>
   </si>
   <si>
+    <t>Accessing Data with MongoDB</t>
+  </si>
+  <si>
+    <t>https://spring.io/guides/gs/accessing-data-mongodb/</t>
+  </si>
+  <si>
+    <t>Building a RESTful Web Service</t>
+  </si>
+  <si>
+    <t>https://spring.io/guides/gs/rest-service/</t>
+  </si>
+  <si>
+    <t>Serving Web Content with Spring MVC</t>
+  </si>
+  <si>
+    <t>https://spring.io/guides/gs/serving-web-content/</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Set up Jenkins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>https://spring.io/guides/gs/testing-web/</t>
-  </si>
-  <si>
-    <t>Accessing Data with MongoDB</t>
-  </si>
-  <si>
-    <t>https://spring.io/guides/gs/accessing-data-mongodb/</t>
-  </si>
-  <si>
-    <t>Building a RESTful Web Service</t>
-  </si>
-  <si>
-    <t>https://spring.io/guides/gs/rest-service/</t>
-  </si>
-  <si>
-    <t>Serving Web Content with Spring MVC</t>
-  </si>
-  <si>
-    <t>https://spring.io/guides/gs/serving-web-content/</t>
-  </si>
-  <si>
-    <t>Backlog</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Highest</t>
-  </si>
-  <si>
-    <t>Set up Jenkins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign with picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement the payment to WeChat &amp; alipay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login with WeChat or QQ, etc.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="40.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
@@ -471,19 +484,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -493,10 +506,10 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -508,17 +521,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -534,7 +547,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -542,7 +555,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -550,11 +563,11 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -568,11 +581,11 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -585,7 +598,9 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -597,6 +612,38 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -644,42 +691,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
